--- a/cuadro_cancelacion.xlsx
+++ b/cuadro_cancelacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Diegulio/Documents/MATLAB/edp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946AD3B-A85E-F841-BA1A-96A72BC7BD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E2CACD-5E1D-6E46-A9AA-5F2124B30A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{14DBAA2A-8A03-3446-920A-22E64A04BE8E}"/>
+    <workbookView xWindow="31360" yWindow="1500" windowWidth="28800" windowHeight="16240" xr2:uid="{14DBAA2A-8A03-3446-920A-22E64A04BE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="vencida" sheetId="1" r:id="rId1"/>
@@ -5896,8 +5896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AEF492-9B24-A344-91BD-2156219A24F7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5929,7 +5929,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>21600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -5937,7 +5937,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="B5">
         <f>B3*B4/(1-(1+B4)^(-B6))</f>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -5954,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -6009,11 +6009,11 @@
       </c>
       <c r="K9">
         <f>B3</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="L9">
         <f>K9*$B$4</f>
-        <v>3456</v>
+        <v>1100</v>
       </c>
       <c r="M9" t="s">
         <v>10</v>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="O9">
         <f>K9</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="Q9">
         <f>769000-150000</f>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B10">
         <f>B3</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -6049,30 +6049,30 @@
       </c>
       <c r="F10">
         <f>B10</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
         <f>O9</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L19" si="0">K10*$B$4</f>
-        <v>3456</v>
+        <v>1100</v>
       </c>
       <c r="M10">
         <f>$B$3/$B$6</f>
-        <v>10800</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="N10">
         <f>L10+M10</f>
-        <v>14256</v>
+        <v>4433.3333333333339</v>
       </c>
       <c r="O10">
         <f t="shared" ref="O10:O19" si="1">K10-M10</f>
-        <v>10800</v>
+        <v>6666.6666666666661</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -6081,46 +6081,46 @@
       </c>
       <c r="B11">
         <f>F10</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="C11">
         <f>B11*$B$4</f>
-        <v>3456</v>
+        <v>1100</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D20" si="2">E11-C11</f>
-        <v>10000.000000000005</v>
+        <f>E11-C11</f>
+        <v>2992.1306962688109</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E20" si="3">$B$5</f>
-        <v>13456.000000000005</v>
+        <f t="shared" ref="E11:E20" si="2">$B$5</f>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11:F20" si="4">B11-D11</f>
-        <v>11599.999999999995</v>
+        <f t="shared" ref="F11:F20" si="3">B11-D11</f>
+        <v>7007.8693037311896</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K19" si="5">O10</f>
-        <v>10800</v>
+        <f t="shared" ref="K11:K19" si="4">O10</f>
+        <v>6666.6666666666661</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>1728</v>
+        <v>733.33333333333326</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M19" si="6">$B$3/$B$6</f>
-        <v>10800</v>
+        <f t="shared" ref="M11:M19" si="5">$B$3/$B$6</f>
+        <v>3333.3333333333335</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N19" si="7">L11+M11</f>
-        <v>12528</v>
+        <f t="shared" ref="N11:N19" si="6">L11+M11</f>
+        <v>4066.666666666667</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3333.3333333333326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -6128,51 +6128,51 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B20" si="8">F11</f>
-        <v>11599.999999999995</v>
+        <f t="shared" ref="B12:B20" si="7">F11</f>
+        <v>7007.8693037311896</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C20" si="9">B12*$B$4</f>
-        <v>1855.9999999999991</v>
+        <f t="shared" ref="C12:C20" si="8">B12*$B$4</f>
+        <v>770.86562341043089</v>
       </c>
       <c r="D12">
+        <f t="shared" ref="D11:D20" si="9">E12-C12</f>
+        <v>3321.2650728583799</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="2"/>
-        <v>11600.000000000007</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>B12-D12</f>
+        <v>3686.6042308728097</v>
       </c>
       <c r="H12">
         <f>D17/E17*100</f>
-        <v>181.06393599999998</v>
+        <v>136.76309999999998</v>
       </c>
       <c r="J12">
         <v>3</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3333.3333333333326</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>366.66666666666657</v>
       </c>
       <c r="M12">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="7"/>
-        <v>10800</v>
+        <v>3700</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>-10800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -6180,47 +6180,47 @@
         <v>3</v>
       </c>
       <c r="B13">
+        <f t="shared" si="7"/>
+        <v>3686.6042308728097</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C13">
+        <v>405.52646539600909</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
+        <v>3686.604230872802</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="2"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="E13">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
-        <v>-13456.000000000005</v>
+        <v>7.73070496506989E-12</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
-        <v>-10800</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>-1728</v>
+        <v>0</v>
       </c>
       <c r="M13">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="7"/>
-        <v>9072</v>
+        <v>3333.3333333333335</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>-21600</v>
+        <v>-3333.3333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -6228,47 +6228,47 @@
         <v>4</v>
       </c>
       <c r="B14">
+        <f t="shared" si="7"/>
+        <v>7.73070496506989E-12</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="8"/>
-        <v>-13456.000000000005</v>
-      </c>
-      <c r="C14">
+        <v>8.5037754615768795E-13</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="9"/>
-        <v>-2152.9600000000009</v>
-      </c>
-      <c r="D14">
+        <v>4092.13069626881</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="2"/>
-        <v>15608.960000000006</v>
-      </c>
-      <c r="E14">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
-        <v>-29064.960000000014</v>
+        <v>-4092.1306962688022</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
-        <v>-21600</v>
+        <f t="shared" si="4"/>
+        <v>-3333.3333333333335</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>-3456</v>
+        <v>-366.66666666666669</v>
       </c>
       <c r="M14">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
-        <v>7344</v>
+        <v>2966.666666666667</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>-32400</v>
+        <v>-6666.666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -6276,24 +6276,24 @@
         <v>5</v>
       </c>
       <c r="B15">
+        <f t="shared" si="7"/>
+        <v>-4092.1306962688022</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="8"/>
-        <v>-29064.960000000014</v>
-      </c>
-      <c r="C15">
+        <v>-450.13437658956826</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="9"/>
-        <v>-4650.3936000000022</v>
-      </c>
-      <c r="D15">
+        <v>4542.2650728583794</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="2"/>
-        <v>18106.393600000007</v>
-      </c>
-      <c r="E15">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>-47171.353600000017</v>
+        <v>-8634.3957691271826</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -6305,24 +6305,24 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
-        <v>-32400</v>
+        <f t="shared" si="4"/>
+        <v>-6666.666666666667</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>-5184</v>
+        <v>-733.33333333333337</v>
       </c>
       <c r="M15">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="7"/>
-        <v>5616</v>
+        <v>2600</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>-43200</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -6330,55 +6330,55 @@
         <v>6</v>
       </c>
       <c r="B16">
+        <f t="shared" si="7"/>
+        <v>-8634.3957691271826</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="8"/>
-        <v>-47171.353600000017</v>
-      </c>
-      <c r="C16">
+        <v>-949.78353460399012</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="9"/>
-        <v>-7547.4165760000033</v>
-      </c>
-      <c r="D16">
+        <v>5041.9142308728005</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="2"/>
-        <v>21003.416576000011</v>
-      </c>
-      <c r="E16">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="4"/>
-        <v>-68174.77017600002</v>
+        <v>-13676.309999999983</v>
       </c>
       <c r="H16">
         <f>C17/E17*100</f>
-        <v>-81.063935999999998</v>
+        <v>-36.763099999999973</v>
       </c>
       <c r="I16">
         <f>D17/E17*100</f>
-        <v>181.06393599999998</v>
+        <v>136.76309999999998</v>
       </c>
       <c r="J16">
         <v>7</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
-        <v>-43200</v>
+        <f t="shared" si="4"/>
+        <v>-10000</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>-6912</v>
+        <v>-1100</v>
       </c>
       <c r="M16">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
-        <v>3888</v>
+        <v>2233.3333333333335</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>-54000</v>
+        <v>-13333.333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -6386,47 +6386,47 @@
         <v>7</v>
       </c>
       <c r="B17">
+        <f t="shared" si="7"/>
+        <v>-13676.309999999983</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="8"/>
-        <v>-68174.77017600002</v>
-      </c>
-      <c r="C17">
+        <v>-1504.3940999999982</v>
+      </c>
+      <c r="D17">
         <f t="shared" si="9"/>
-        <v>-10907.963228160004</v>
-      </c>
-      <c r="D17">
+        <v>5596.524796268809</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="2"/>
-        <v>24363.96322816001</v>
-      </c>
-      <c r="E17">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
-        <v>-92538.733404160026</v>
+        <v>-19272.834796268791</v>
       </c>
       <c r="J17">
         <v>8</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
-        <v>-54000</v>
+        <f t="shared" si="4"/>
+        <v>-13333.333333333334</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>-8640</v>
+        <v>-1466.6666666666667</v>
       </c>
       <c r="M17">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="7"/>
-        <v>2160</v>
+        <v>1866.6666666666667</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>-64800</v>
+        <v>-16666.666666666668</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -6434,47 +6434,47 @@
         <v>8</v>
       </c>
       <c r="B18">
+        <f t="shared" si="7"/>
+        <v>-19272.834796268791</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="8"/>
-        <v>-92538.733404160026</v>
-      </c>
-      <c r="C18">
+        <v>-2120.011827589567</v>
+      </c>
+      <c r="D18">
         <f t="shared" si="9"/>
-        <v>-14806.197344665605</v>
-      </c>
-      <c r="D18">
+        <v>6212.1425238583779</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="2"/>
-        <v>28262.197344665612</v>
-      </c>
-      <c r="E18">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>-120800.93074882563</v>
+        <v>-25484.977320127167</v>
       </c>
       <c r="J18">
         <v>9</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
-        <v>-64800</v>
+        <f t="shared" si="4"/>
+        <v>-16666.666666666668</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>-10368</v>
+        <v>-1833.3333333333335</v>
       </c>
       <c r="M18">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
-        <v>432</v>
+        <v>1500</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>-75600</v>
+        <v>-20000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -6482,47 +6482,47 @@
         <v>9</v>
       </c>
       <c r="B19">
+        <f t="shared" si="7"/>
+        <v>-25484.977320127167</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="8"/>
-        <v>-120800.93074882563</v>
-      </c>
-      <c r="C19">
+        <v>-2803.3475052139884</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="9"/>
-        <v>-19328.148919812102</v>
-      </c>
-      <c r="D19">
+        <v>6895.4782014827997</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="2"/>
-        <v>32784.148919812105</v>
-      </c>
-      <c r="E19">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>-153585.07966863774</v>
+        <v>-32380.455521609969</v>
       </c>
       <c r="J19">
         <v>10</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
-        <v>-75600</v>
+        <f t="shared" si="4"/>
+        <v>-20000</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>-12096</v>
+        <v>-2200</v>
       </c>
       <c r="M19">
+        <f t="shared" si="5"/>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="6"/>
-        <v>10800</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
-        <v>-1296</v>
+        <v>1133.3333333333335</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>-86400</v>
+        <v>-23333.333333333332</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -6530,24 +6530,24 @@
         <v>10</v>
       </c>
       <c r="B20">
+        <f t="shared" si="7"/>
+        <v>-32380.455521609969</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="8"/>
-        <v>-153585.07966863774</v>
-      </c>
-      <c r="C20">
+        <v>-3561.8501073770967</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="9"/>
-        <v>-24573.612746982039</v>
-      </c>
-      <c r="D20">
+        <v>7653.9808036459071</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="2"/>
-        <v>38029.612746982042</v>
-      </c>
-      <c r="E20">
+        <v>4092.1306962688109</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="3"/>
-        <v>13456.000000000005</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="4"/>
-        <v>-191614.69241561979</v>
+        <v>-40034.436325255876</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -6559,13 +6559,13 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H24">
         <f>B3*(1+B4)^3- B5*((1+B4)^3-1)/B4</f>
-        <v>-13456.000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H25">
         <f>B3*(1+B4)^3- B5*((2+B4)*(1+B4)+1)</f>
-        <v>-13456.000000000022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="B27">
         <f>B3</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="F27">
         <f>B27</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -6616,22 +6616,22 @@
       </c>
       <c r="B28">
         <f>F27</f>
-        <v>21600</v>
+        <v>10000</v>
       </c>
       <c r="C28">
         <f>$B$4*B28</f>
-        <v>3456</v>
+        <v>1100</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28">
         <f>$B$5</f>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F28">
         <f>B28+C28</f>
-        <v>25056</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -6640,23 +6640,23 @@
       </c>
       <c r="B29">
         <f>F28</f>
-        <v>25056</v>
+        <v>11100</v>
       </c>
       <c r="C29">
         <f>$B$4*B29</f>
-        <v>4008.96</v>
+        <v>1221</v>
       </c>
       <c r="D29">
         <f>E29-C29</f>
-        <v>9447.0400000000045</v>
+        <v>2871.1306962688109</v>
       </c>
       <c r="E29">
         <f t="shared" ref="E29:E34" si="10">$B$5</f>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F29">
         <f>B29-D29</f>
-        <v>15608.959999999995</v>
+        <v>8228.8693037311896</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -6665,23 +6665,23 @@
       </c>
       <c r="B30">
         <f t="shared" ref="B30:B34" si="11">F29</f>
-        <v>15608.959999999995</v>
+        <v>8228.8693037311896</v>
       </c>
       <c r="C30">
         <f t="shared" ref="C30:C34" si="12">$B$4*B30</f>
-        <v>2497.4335999999994</v>
+        <v>905.17562341043083</v>
       </c>
       <c r="D30">
         <f>E30-C30</f>
-        <v>10958.566400000007</v>
+        <v>3186.9550728583799</v>
       </c>
       <c r="E30">
         <f t="shared" si="10"/>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F30">
         <f>B30-D30</f>
-        <v>4650.3935999999885</v>
+        <v>5041.9142308728096</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -6690,23 +6690,23 @@
       </c>
       <c r="B31">
         <f t="shared" si="11"/>
-        <v>4650.3935999999885</v>
+        <v>5041.9142308728096</v>
       </c>
       <c r="C31">
         <f t="shared" si="12"/>
-        <v>744.06297599999823</v>
+        <v>554.61056539600906</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:D34" si="13">E31-C31</f>
-        <v>12711.937024000008</v>
+        <v>3537.5201308728019</v>
       </c>
       <c r="E31">
         <f t="shared" si="10"/>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:F34" si="14">B31-D31</f>
-        <v>-8061.5434240000195</v>
+        <v>1504.3941000000077</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -6715,23 +6715,23 @@
       </c>
       <c r="B32">
         <f t="shared" si="11"/>
-        <v>-8061.5434240000195</v>
+        <v>1504.3941000000077</v>
       </c>
       <c r="C32">
         <f t="shared" si="12"/>
-        <v>-1289.8469478400032</v>
+        <v>165.48335100000085</v>
       </c>
       <c r="D32">
         <f t="shared" si="13"/>
-        <v>14745.846947840009</v>
+        <v>3926.6473452688101</v>
       </c>
       <c r="E32">
         <f t="shared" si="10"/>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F32">
         <f t="shared" si="14"/>
-        <v>-22807.390371840029</v>
+        <v>-2422.2532452688024</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6740,23 +6740,23 @@
       </c>
       <c r="B33">
         <f t="shared" si="11"/>
-        <v>-22807.390371840029</v>
+        <v>-2422.2532452688024</v>
       </c>
       <c r="C33">
         <f t="shared" si="12"/>
-        <v>-3649.1824594944046</v>
+        <v>-266.44785697956826</v>
       </c>
       <c r="D33">
         <f t="shared" si="13"/>
-        <v>17105.182459494412</v>
+        <v>4358.5785532483787</v>
       </c>
       <c r="E33">
         <f t="shared" si="10"/>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F33">
         <f t="shared" si="14"/>
-        <v>-39912.572831334444</v>
+        <v>-6780.8317985171816</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6765,23 +6765,23 @@
       </c>
       <c r="B34">
         <f t="shared" si="11"/>
-        <v>-39912.572831334444</v>
+        <v>-6780.8317985171816</v>
       </c>
       <c r="C34">
         <f t="shared" si="12"/>
-        <v>-6386.011653013511</v>
+        <v>-745.89149783688993</v>
       </c>
       <c r="D34">
         <f t="shared" si="13"/>
-        <v>19842.011653013516</v>
+        <v>4838.0221941057007</v>
       </c>
       <c r="E34">
         <f t="shared" si="10"/>
-        <v>13456.000000000005</v>
+        <v>4092.1306962688109</v>
       </c>
       <c r="F34">
         <f t="shared" si="14"/>
-        <v>-59754.584484347957</v>
+        <v>-11618.853992622882</v>
       </c>
     </row>
   </sheetData>
@@ -6799,7 +6799,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6827,7 +6827,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>120000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6835,7 +6835,8 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <f>10/100</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6844,7 +6845,7 @@
       </c>
       <c r="B5">
         <f>(B3*B4)/(1-POWER(1+B4,-B6))/(1+B4)</f>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6852,7 +6853,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6899,29 +6900,29 @@
       </c>
       <c r="B10">
         <f>B3</f>
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <f>E10-C10</f>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="E10">
         <f>$B$5</f>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F10">
         <f>B10-D10</f>
-        <v>89103.087921024999</v>
+        <v>634.44108761329335</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
         <f>B3</f>
-        <v>120000</v>
+        <v>1000</v>
       </c>
       <c r="M10">
         <f>0</f>
@@ -6929,15 +6930,15 @@
       </c>
       <c r="N10">
         <f>$B$3/$B$6</f>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O10">
         <f>N10+M10</f>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="P10">
         <f>L10-N10</f>
-        <v>90000</v>
+        <v>666.66666666666674</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6946,46 +6947,46 @@
       </c>
       <c r="B11">
         <f>F10</f>
-        <v>89103.087921024999</v>
+        <v>634.44108761329335</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C17" si="0">$B$4*B11</f>
-        <v>1782.0617584204999</v>
+        <v>63.444108761329339</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:D17" si="1">E11-C11</f>
-        <v>29114.850320554498</v>
+        <v>302.11480362537725</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:E17" si="2">$B$5</f>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F17" si="3">B11-D11</f>
-        <v>59988.2376004705</v>
+        <v>332.3262839879161</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
         <f>P10</f>
-        <v>90000</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="M11">
         <f t="shared" ref="M11:M17" si="4">L11*$B$4</f>
-        <v>1800</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="N11">
         <f>$B$3/$B$6</f>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O11">
         <f>M11+N11</f>
-        <v>31800</v>
+        <v>400</v>
       </c>
       <c r="P11">
         <f t="shared" ref="P11:P17" si="5">L11-N11</f>
-        <v>60000</v>
+        <v>333.33333333333343</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6994,46 +6995,46 @@
       </c>
       <c r="B12">
         <f t="shared" ref="B12:B17" si="6">F11</f>
-        <v>59988.2376004705</v>
+        <v>332.3262839879161</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>1199.7647520094101</v>
+        <v>33.232628398791611</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>29697.147326965587</v>
+        <v>332.32628398791496</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>30291.090273504913</v>
+        <v>1.1368683772161603E-12</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:L17" si="7">P11</f>
-        <v>60000</v>
+        <v>333.33333333333343</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>1200</v>
+        <v>33.333333333333343</v>
       </c>
       <c r="N12">
         <f t="shared" ref="N12:N17" si="8">$B$3/$B$6</f>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O12">
         <f t="shared" ref="O12:O17" si="9">M12+N12</f>
-        <v>31200</v>
+        <v>366.66666666666663</v>
       </c>
       <c r="P12">
         <f t="shared" si="5"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -7042,46 +7043,46 @@
       </c>
       <c r="B13">
         <f t="shared" si="6"/>
-        <v>30291.090273504913</v>
+        <v>1.1368683772161603E-12</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>605.8218054700983</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>30291.090273504899</v>
+        <v>365.55891238670648</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-365.55891238670534</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13">
         <f t="shared" si="7"/>
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" si="4"/>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" si="8"/>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O13">
         <f t="shared" si="9"/>
-        <v>30600</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="P13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-333.33333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -7090,46 +7091,46 @@
       </c>
       <c r="B14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-365.55891238670534</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-36.555891238670533</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>30896.912078974998</v>
+        <v>402.11480362537714</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>-30896.912078974998</v>
+        <v>-767.67371601208242</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-333.33333333333331</v>
       </c>
       <c r="M14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-33.333333333333336</v>
       </c>
       <c r="N14">
         <f t="shared" si="8"/>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O14">
         <f t="shared" si="9"/>
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="P14">
         <f t="shared" si="5"/>
-        <v>-30000</v>
+        <v>-666.66666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -7138,46 +7139,46 @@
       </c>
       <c r="B15">
         <f t="shared" si="6"/>
-        <v>-30896.912078974998</v>
+        <v>-767.67371601208242</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>-617.93824157949996</v>
+        <v>-76.767371601208239</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>31514.850320554498</v>
+        <v>442.32628398791485</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>-62411.7623995295</v>
+        <v>-1209.9999999999973</v>
       </c>
       <c r="K15">
         <v>5</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
-        <v>-30000</v>
+        <v>-666.66666666666663</v>
       </c>
       <c r="M15">
         <f t="shared" si="4"/>
-        <v>-600</v>
+        <v>-66.666666666666671</v>
       </c>
       <c r="N15">
         <f t="shared" si="8"/>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O15">
         <f t="shared" si="9"/>
-        <v>29400</v>
+        <v>266.66666666666663</v>
       </c>
       <c r="P15">
         <f t="shared" si="5"/>
-        <v>-60000</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -7186,46 +7187,46 @@
       </c>
       <c r="B16">
         <f t="shared" si="6"/>
-        <v>-62411.7623995295</v>
+        <v>-1209.9999999999973</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>-1248.2352479905901</v>
+        <v>-120.99999999999973</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>32145.147326965587</v>
+        <v>486.55891238670631</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>-94556.909726495083</v>
+        <v>-1696.5589123867035</v>
       </c>
       <c r="K16">
         <v>6</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
-        <v>-60000</v>
+        <v>-1000</v>
       </c>
       <c r="M16">
         <f t="shared" si="4"/>
-        <v>-1200</v>
+        <v>-100</v>
       </c>
       <c r="N16">
         <f t="shared" si="8"/>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O16">
         <f t="shared" si="9"/>
-        <v>28800</v>
+        <v>233.33333333333331</v>
       </c>
       <c r="P16">
         <f t="shared" si="5"/>
-        <v>-90000</v>
+        <v>-1333.3333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -7234,46 +7235,46 @@
       </c>
       <c r="B17">
         <f t="shared" si="6"/>
-        <v>-94556.909726495083</v>
+        <v>-1696.5589123867035</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>-1891.1381945299017</v>
+        <v>-169.65589123867036</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>32788.050273504901</v>
+        <v>535.21480362537693</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>30896.912078974998</v>
+        <v>365.5589123867066</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>-127344.95999999999</v>
+        <v>-2231.7737160120805</v>
       </c>
       <c r="K17">
         <v>7</v>
       </c>
       <c r="L17">
         <f t="shared" si="7"/>
-        <v>-90000</v>
+        <v>-1333.3333333333333</v>
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
-        <v>-1800</v>
+        <v>-133.33333333333334</v>
       </c>
       <c r="N17">
         <f t="shared" si="8"/>
-        <v>30000</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="O17">
         <f t="shared" si="9"/>
-        <v>28200</v>
+        <v>199.99999999999997</v>
       </c>
       <c r="P17">
         <f t="shared" si="5"/>
-        <v>-120000</v>
+        <v>-1666.6666666666665</v>
       </c>
     </row>
   </sheetData>
@@ -7290,8 +7291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3795350-72D4-5B4A-A351-DDC917F3CD9C}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E17"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
